--- a/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_15_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.773643769066</v>
+        <v>89.93499176209178</v>
       </c>
       <c r="D2" t="n">
-        <v>1.863694183840186</v>
+        <v>1.776702499545225</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.97263227362016</v>
+        <v>89.15351861123207</v>
       </c>
       <c r="D3" t="n">
-        <v>1.987029474248998</v>
+        <v>1.715932939854873</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.82465744124082</v>
+        <v>87.87025557504396</v>
       </c>
       <c r="D4" t="n">
-        <v>1.754934253079309</v>
+        <v>1.977411553898466</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.21541142214807</v>
+        <v>86.81371103603364</v>
       </c>
       <c r="D5" t="n">
-        <v>2.004333794810988</v>
+        <v>2.037310091207078</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.33377590267601</v>
+        <v>85.77724906717326</v>
       </c>
       <c r="D6" t="n">
-        <v>3.094017405602334</v>
+        <v>1.838855480493713</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.13727180211613</v>
+        <v>85.57775579625135</v>
       </c>
       <c r="D7" t="n">
-        <v>1.927354462493129</v>
+        <v>4.045711773856361</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.14767688571304</v>
+        <v>83.93694390198755</v>
       </c>
       <c r="D8" t="n">
-        <v>1.964946419098521</v>
+        <v>1.875579633782233</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.22091328818806</v>
+        <v>82.90768027716774</v>
       </c>
       <c r="D9" t="n">
-        <v>1.844257303584895</v>
+        <v>2.017326690694996</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.6494997756629</v>
+        <v>82.19846535805131</v>
       </c>
       <c r="D10" t="n">
-        <v>1.917885141726828</v>
+        <v>3.195136140370989</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.9232915774256</v>
+        <v>80.77876399194292</v>
       </c>
       <c r="D11" t="n">
-        <v>1.981670490923625</v>
+        <v>3.425706883544152</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.93517959898051</v>
+        <v>80.11821589454976</v>
       </c>
       <c r="D12" t="n">
-        <v>1.699634954859819</v>
+        <v>1.832386513852844</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.8174983957131</v>
+        <v>79.02458287002447</v>
       </c>
       <c r="D13" t="n">
-        <v>1.930500124998739</v>
+        <v>2.012988237686494</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.9453300372161</v>
+        <v>78.06237429809025</v>
       </c>
       <c r="D14" t="n">
-        <v>1.772331131381988</v>
+        <v>3.372559495856821</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.35286836406125</v>
+        <v>77.15678303386103</v>
       </c>
       <c r="D15" t="n">
-        <v>3.340191234475987</v>
+        <v>2.108529722879043</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.77260291417761</v>
+        <v>76.49974210105042</v>
       </c>
       <c r="D16" t="n">
-        <v>1.796077478909684</v>
+        <v>3.418673091282921</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.34792117746655</v>
+        <v>75.03509997619757</v>
       </c>
       <c r="D17" t="n">
-        <v>1.779717449228481</v>
+        <v>1.776534357077881</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.70249255414249</v>
+        <v>74.08123585225427</v>
       </c>
       <c r="D18" t="n">
-        <v>1.767186041054356</v>
+        <v>1.798668089661018</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.4082442681634</v>
+        <v>72.93838608746626</v>
       </c>
       <c r="D19" t="n">
-        <v>4.786831694688288</v>
+        <v>1.874548752203357</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.21320415056626</v>
+        <v>72.20243393075789</v>
       </c>
       <c r="D20" t="n">
-        <v>1.903413176405016</v>
+        <v>1.917324556365145</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.92849450876351</v>
+        <v>71.25084154346374</v>
       </c>
       <c r="D21" t="n">
-        <v>1.878308084954139</v>
+        <v>1.884380560156939</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.9841356368613</v>
+        <v>69.95059664666263</v>
       </c>
       <c r="D22" t="n">
-        <v>1.742565176570711</v>
+        <v>1.581463068115407</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.33457312220622</v>
+        <v>68.66496580255674</v>
       </c>
       <c r="D23" t="n">
-        <v>3.733038674891767</v>
+        <v>1.895620754672716</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.23098599785268</v>
+        <v>67.83358037229118</v>
       </c>
       <c r="D24" t="n">
-        <v>1.74452942659265</v>
+        <v>1.893432531811093</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.83208105804938</v>
+        <v>66.71840228849074</v>
       </c>
       <c r="D25" t="n">
-        <v>1.93783968197702</v>
+        <v>2.126786890355588</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.00991810461032</v>
+        <v>66.05175593882738</v>
       </c>
       <c r="D26" t="n">
-        <v>1.891946494591714</v>
+        <v>1.998788490654731</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.97381265588227</v>
+        <v>65.2758869053829</v>
       </c>
       <c r="D27" t="n">
-        <v>2.005894555594448</v>
+        <v>4.036152947613567</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.20605672957983</v>
+        <v>64.22787631641572</v>
       </c>
       <c r="D28" t="n">
-        <v>2.056566638853425</v>
+        <v>4.050560724831235</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.8866114678498</v>
+        <v>63.19184369704583</v>
       </c>
       <c r="D29" t="n">
-        <v>1.720101115643039</v>
+        <v>3.946093080835996</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.31589336522051</v>
+        <v>62.33576618747666</v>
       </c>
       <c r="D30" t="n">
-        <v>4.090349538629206</v>
+        <v>4.015889820926911</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.75262599210574</v>
+        <v>62.28527115858808</v>
       </c>
       <c r="D31" t="n">
-        <v>1.806382861963903</v>
+        <v>6.469280348544568</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.20634408194717</v>
+        <v>60.23798067143364</v>
       </c>
       <c r="D32" t="n">
-        <v>1.878018301919278</v>
+        <v>4.11418723555858</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.28532714850845</v>
+        <v>58.79532238368896</v>
       </c>
       <c r="D33" t="n">
-        <v>1.927909751257724</v>
+        <v>2.037299862071478</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.35709060733227</v>
+        <v>57.82511508536302</v>
       </c>
       <c r="D34" t="n">
-        <v>1.780500458944021</v>
+        <v>1.646568558005869</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.24959360630912</v>
+        <v>57.04451437456853</v>
       </c>
       <c r="D35" t="n">
-        <v>4.208009321036439</v>
+        <v>1.874660465724151</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.3090296755387</v>
+        <v>55.88247162381706</v>
       </c>
       <c r="D36" t="n">
-        <v>1.913227066811938</v>
+        <v>1.846365732168181</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.81204244400223</v>
+        <v>55.21760745731093</v>
       </c>
       <c r="D37" t="n">
-        <v>1.818677757959622</v>
+        <v>1.981516044052374</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.31452695557489</v>
+        <v>54.24525623117714</v>
       </c>
       <c r="D38" t="n">
-        <v>4.298466971726737</v>
+        <v>1.866928327874045</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.08030197691679</v>
+        <v>53.18134551723651</v>
       </c>
       <c r="D39" t="n">
-        <v>1.838778168519898</v>
+        <v>1.751491112321935</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.0538101388433</v>
+        <v>52.13791948066248</v>
       </c>
       <c r="D40" t="n">
-        <v>1.813334639914661</v>
+        <v>4.496340256691067</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.35153934136819</v>
+        <v>51.5922735194255</v>
       </c>
       <c r="D41" t="n">
-        <v>4.547620585157722</v>
+        <v>6.00858127801237</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.83079487230254</v>
+        <v>49.89466182302898</v>
       </c>
       <c r="D42" t="n">
-        <v>2.117153024039607</v>
+        <v>1.787554835023643</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.44685131210566</v>
+        <v>48.87312133409559</v>
       </c>
       <c r="D43" t="n">
-        <v>4.586287836249371</v>
+        <v>2.048142866363485</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.72426974898713</v>
+        <v>48.68895032169901</v>
       </c>
       <c r="D44" t="n">
-        <v>1.858054691412625</v>
+        <v>6.177383929284159</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.2015975162288</v>
+        <v>47.46425531935095</v>
       </c>
       <c r="D45" t="n">
-        <v>1.717580540512929</v>
+        <v>4.595525611899702</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.08990834675605</v>
+        <v>46.47945310416293</v>
       </c>
       <c r="D46" t="n">
-        <v>1.854887396828907</v>
+        <v>4.655462122745797</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.46372975987181</v>
+        <v>45.24993308761951</v>
       </c>
       <c r="D47" t="n">
-        <v>1.70587628850262</v>
+        <v>1.705771492158868</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.15882624423819</v>
+        <v>43.68606243503281</v>
       </c>
       <c r="D48" t="n">
-        <v>1.815759586591399</v>
+        <v>1.825682198012789</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.1022462819079</v>
+        <v>43.35692348174273</v>
       </c>
       <c r="D49" t="n">
-        <v>1.639317904088925</v>
+        <v>1.831351515796316</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.88615228447468</v>
+        <v>41.92498741393063</v>
       </c>
       <c r="D50" t="n">
-        <v>1.495969563865832</v>
+        <v>1.785496277979168</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.50044456445446</v>
+        <v>41.50754682077493</v>
       </c>
       <c r="D51" t="n">
-        <v>4.660116429341475</v>
+        <v>4.885681789894953</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.62064268373831</v>
+        <v>39.96538689095542</v>
       </c>
       <c r="D52" t="n">
-        <v>4.893283361395635</v>
+        <v>1.737698386391602</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.16137476091025</v>
+        <v>39.40961226981745</v>
       </c>
       <c r="D53" t="n">
-        <v>1.963037327383247</v>
+        <v>4.970150754988882</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.38867078450819</v>
+        <v>38.48124083261791</v>
       </c>
       <c r="D54" t="n">
-        <v>4.88906899182117</v>
+        <v>5.047190549652199</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.00250063574894</v>
+        <v>37.29977519935871</v>
       </c>
       <c r="D55" t="n">
-        <v>1.909403234697148</v>
+        <v>5.052026836730519</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.75482290643075</v>
+        <v>35.86557858626567</v>
       </c>
       <c r="D56" t="n">
-        <v>1.970243335991956</v>
+        <v>1.995421471652198</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.0680454287339</v>
+        <v>35.08756900034875</v>
       </c>
       <c r="D57" t="n">
-        <v>1.713704651514444</v>
+        <v>1.686627570129231</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.71899951850953</v>
+        <v>34.51994829612763</v>
       </c>
       <c r="D58" t="n">
-        <v>1.789795653256981</v>
+        <v>5.124060237739542</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.44273485797203</v>
+        <v>32.96253621645404</v>
       </c>
       <c r="D59" t="n">
-        <v>5.130928999296346</v>
+        <v>1.690045990528546</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.92176446920524</v>
+        <v>32.33721761473859</v>
       </c>
       <c r="D60" t="n">
-        <v>1.944772187702753</v>
+        <v>5.287054461168976</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.81768872224328</v>
+        <v>31.84355456408371</v>
       </c>
       <c r="D61" t="n">
-        <v>1.736930486585987</v>
+        <v>5.415330919331055</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.90651381300403</v>
+        <v>30.25513454002728</v>
       </c>
       <c r="D62" t="n">
-        <v>1.678345258908498</v>
+        <v>1.492604666377393</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.3724358066817</v>
+        <v>28.97239958891344</v>
       </c>
       <c r="D63" t="n">
-        <v>7.321138537843752</v>
+        <v>1.663854984235012</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.98282586594199</v>
+        <v>28.01525543732061</v>
       </c>
       <c r="D64" t="n">
-        <v>1.600081741040834</v>
+        <v>1.733338449070312</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.97001041762026</v>
+        <v>27.6286467475265</v>
       </c>
       <c r="D65" t="n">
-        <v>1.559005361101233</v>
+        <v>5.451055001709666</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.69106373750682</v>
+        <v>26.24295571365033</v>
       </c>
       <c r="D66" t="n">
-        <v>1.810486558422694</v>
+        <v>1.930193715198923</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.89261900765675</v>
+        <v>24.88812182049985</v>
       </c>
       <c r="D67" t="n">
-        <v>1.838796573432272</v>
+        <v>1.710656946582593</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.73359447064092</v>
+        <v>24.09046430464141</v>
       </c>
       <c r="D68" t="n">
-        <v>5.524127346222643</v>
+        <v>1.878021188293298</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.61712830622783</v>
+        <v>22.86190704103697</v>
       </c>
       <c r="D69" t="n">
-        <v>5.519965106554376</v>
+        <v>1.753664271589287</v>
       </c>
     </row>
   </sheetData>
